--- a/biology/Zoologie/Grue_du_Canada/Grue_du_Canada.xlsx
+++ b/biology/Zoologie/Grue_du_Canada/Grue_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antigone canadensis
 La Grue du Canada (Antigone canadensis) est une espèce de grands échassiers de la famille des Gruidae vivant en Amérique du Nord, à Cuba et en Sibérie.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes sont presque entièrement gris ; en période de reproduction, le plumage est généralement beaucoup taché, en particulier dans les populations migratrices, et devient presque ocre. La grue a le front rouge, les joues blanches et un long bec pointu foncé. En vol, ses longues pattes sombres traînent et son long cou est maintenu droit. Les immatures ont le dessus roux et le ventre gris. Les deux sexes se ressemblent. La taille varie selon les différentes sous-espèces. Cette grue lance souvent un appel claironné qui rappelle un R roulé français et que l'on peut entendre à grande distance.
 Les couples de grues se livrent à des appels à l'unisson. Elles se tiennent l'une contre l'autre, se livrant à un duo synchronisé complexe. La femelle lance deux appels à chaque appel unique du mâle.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en Amérique du Nord, à Cuba et dans l'extrême nord-est de la Sibérie.
 </t>
@@ -579,7 +595,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 6 sous-espèces :
 Grus canadensis canadensis (Linnaeus) 1758
@@ -615,9 +633,11 @@
           <t>État des populations, pressions menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme de nombreux oiseaux, cette espèce est menacée d'une part la régression de ses habitats naturels partout où l'agriculture intensive, l'urbanisation, la périurbanisation et l'artificialisation des milieux progressent. Elle est victime de collision avec les lignes à haute-tension et parfois du road-kill (collisions avec des véhicules), ainsi que de saturnisme aviaire quand les oiseaux ingèrent des grenailles de plomb en se nourrissant au sol sur des zones chassées depuis longtemps[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme de nombreux oiseaux, cette espèce est menacée d'une part la régression de ses habitats naturels partout où l'agriculture intensive, l'urbanisation, la périurbanisation et l'artificialisation des milieux progressent. Elle est victime de collision avec les lignes à haute-tension et parfois du road-kill (collisions avec des véhicules), ainsi que de saturnisme aviaire quand les oiseaux ingèrent des grenailles de plomb en se nourrissant au sol sur des zones chassées depuis longtemps.
 </t>
         </is>
       </c>
